--- a/labelled_csv_files/labelled_M_0061_14y8m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0061_14y8m_1_fa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD40C79-BE5A-EF41-8511-DFBCD82FC2EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1A1E2012-9979-094F-8A2C-FA7C77F5A9CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="1340" windowWidth="16860" windowHeight="15000"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="16860" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0061_14y8m_1_fa" sheetId="1" r:id="rId1"/>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1786,11 +1786,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B107" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3983,7 +3983,7 @@
         <v>76.084999999999994</v>
       </c>
       <c r="D110">
-        <v>76.135000000000005</v>
+        <v>78.135000000000005</v>
       </c>
       <c r="E110" t="s">
         <v>176</v>
@@ -4000,10 +4000,10 @@
         <v>177</v>
       </c>
       <c r="C111">
-        <v>76.135000000000005</v>
+        <v>78.135000000000005</v>
       </c>
       <c r="D111">
-        <v>76.144999999999996</v>
+        <v>7.8144999999999998</v>
       </c>
       <c r="E111" t="s">
         <v>126</v>
@@ -4020,10 +4020,10 @@
         <v>178</v>
       </c>
       <c r="C112">
-        <v>76.144999999999996</v>
+        <v>80.144999999999996</v>
       </c>
       <c r="D112">
-        <v>76.3</v>
+        <v>81.3</v>
       </c>
       <c r="E112" t="s">
         <v>68</v>
@@ -4040,10 +4040,10 @@
         <v>179</v>
       </c>
       <c r="C113">
-        <v>76.3</v>
+        <v>81.5</v>
       </c>
       <c r="D113">
-        <v>87.055000000000007</v>
+        <v>83.055000000000007</v>
       </c>
       <c r="E113" t="s">
         <v>180</v>
@@ -4060,10 +4060,10 @@
         <v>181</v>
       </c>
       <c r="C114">
-        <v>87.055000000000007</v>
+        <v>84.055000000000007</v>
       </c>
       <c r="D114">
-        <v>88.6</v>
+        <v>85.6</v>
       </c>
       <c r="E114" t="s">
         <v>182</v>
@@ -4080,10 +4080,10 @@
         <v>183</v>
       </c>
       <c r="C115">
-        <v>88.6</v>
+        <v>86.6</v>
       </c>
       <c r="D115">
-        <v>89.11</v>
+        <v>87.11</v>
       </c>
       <c r="E115" t="s">
         <v>184</v>
@@ -4140,10 +4140,10 @@
         <v>188</v>
       </c>
       <c r="C118">
-        <v>89.92</v>
+        <v>90.1</v>
       </c>
       <c r="D118">
-        <v>90.12</v>
+        <v>90.32</v>
       </c>
       <c r="E118" t="s">
         <v>184</v>
@@ -4243,7 +4243,7 @@
         <v>91.364999999999995</v>
       </c>
       <c r="D123">
-        <v>93.575000000000003</v>
+        <v>92.575000000000003</v>
       </c>
       <c r="E123" t="s">
         <v>194</v>
@@ -4283,7 +4283,7 @@
         <v>95.51</v>
       </c>
       <c r="D125">
-        <v>99.09</v>
+        <v>97.09</v>
       </c>
       <c r="E125" t="s">
         <v>198</v>
@@ -4300,10 +4300,10 @@
         <v>199</v>
       </c>
       <c r="C126">
-        <v>99.09</v>
+        <v>97.09</v>
       </c>
       <c r="D126">
-        <v>100.66500000000001</v>
+        <v>98.165000000000006</v>
       </c>
       <c r="E126" t="s">
         <v>200</v>
@@ -4320,10 +4320,10 @@
         <v>201</v>
       </c>
       <c r="C127">
-        <v>100.66500000000001</v>
+        <v>98.665000000000006</v>
       </c>
       <c r="D127">
-        <v>100.85</v>
+        <v>99.1</v>
       </c>
       <c r="E127" t="s">
         <v>202</v>
